--- a/myapp/files/9_MethodComparePercent/Scenario 359.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 359.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>1428</v>
+        <v>7037</v>
       </c>
       <c r="F2" t="n">
-        <v>1.39211136890951</v>
+        <v>1.10161053989405</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.61290322580645</v>
+        <v>0.68259385665529</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6679</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.04556725819985</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.02389078498294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12429</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.94570376585806</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.36518771331058</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16776</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.62620696564766</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.04778156996587</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8393</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.31388621022179</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.36518771331058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>1375</v>
+        <v>8027</v>
       </c>
       <c r="F7" t="n">
-        <v>1.34044336992338</v>
+        <v>1.25659056469085</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.61290322580645</v>
+        <v>1.02389078498294</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1850</v>
+        <v>16512</v>
       </c>
       <c r="F8" t="n">
-        <v>1.80350562498781</v>
+        <v>2.58487895903518</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1.61290322580645</v>
+        <v>3.07167235494881</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1419</v>
+        <v>32591</v>
       </c>
       <c r="F9" t="n">
-        <v>1.38333755776092</v>
+        <v>5.10197372540671</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>4.83870967741935</v>
+        <v>5.80204778156997</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>11437</v>
+        <v>47603</v>
       </c>
       <c r="F10" t="n">
-        <v>11.1495642340463</v>
+        <v>7.45203446505279</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -897,16 +897,16 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>9.67741935483871</v>
+        <v>6.8259385665529</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>10.6666666666667</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>10487</v>
+        <v>33721</v>
       </c>
       <c r="F11" t="n">
-        <v>10.2234397239174</v>
+        <v>5.27887011734649</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,16 +935,16 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>9.67741935483871</v>
+        <v>4.77815699658703</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>6.66666666666667</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7986</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.25017220002755</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.68259385665529</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3004</v>
+        <v>30096</v>
       </c>
       <c r="F13" t="n">
-        <v>2.92850318781805</v>
+        <v>4.71139275382284</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>4.83870967741935</v>
+        <v>4.77815699658703</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7688</v>
+        <v>65733</v>
       </c>
       <c r="F14" t="n">
-        <v>7.49478445670612</v>
+        <v>10.290204010069</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,10 +1049,10 @@
         <v>9.33333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>8.06451612903226</v>
+        <v>8.53242320819113</v>
       </c>
       <c r="K14" t="n">
         <v>11</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>13595</v>
+        <v>67656</v>
       </c>
       <c r="F15" t="n">
-        <v>13.2533291738969</v>
+        <v>10.5912409673258</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
@@ -1087,10 +1087,10 @@
         <v>18.6666666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>12.9032258064516</v>
+        <v>9.21501706484642</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>13821</v>
+        <v>43284</v>
       </c>
       <c r="F16" t="n">
-        <v>13.4736493205171</v>
+        <v>6.77591453869178</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>11.2903225806452</v>
+        <v>7.16723549488055</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>722</v>
+        <v>4213</v>
       </c>
       <c r="F17" t="n">
-        <v>0.703854627697947</v>
+        <v>0.659526105524177</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.61290322580645</v>
+        <v>1.02389078498294</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>3078</v>
+        <v>15151</v>
       </c>
       <c r="F18" t="n">
-        <v>3.00064341281756</v>
+        <v>2.37182056130947</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>1.61290322580645</v>
+        <v>3.41296928327645</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>6981</v>
+        <v>36323</v>
       </c>
       <c r="F19" t="n">
-        <v>6.80555284758915</v>
+        <v>5.68620145524678</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1239,10 +1239,10 @@
         <v>9.33333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>4.83870967741935</v>
+        <v>6.14334470989761</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3858</v>
+        <v>44130</v>
       </c>
       <c r="F20" t="n">
-        <v>3.76104037902864</v>
+        <v>6.90835201442723</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
@@ -1277,10 +1277,10 @@
         <v>25.3333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J20" t="n">
-        <v>4.83870967741935</v>
+        <v>8.53242320819113</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4775</v>
+        <v>36274</v>
       </c>
       <c r="F21" t="n">
-        <v>4.65499424827936</v>
+        <v>5.67853072674674</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
-        <v>6.45161290322581</v>
+        <v>8.19112627986348</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.187854575511278</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.341296928327645</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7992</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.25111147290511</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.33333333333333</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.02389078498294</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>4056</v>
+        <v>21072</v>
       </c>
       <c r="F24" t="n">
-        <v>3.95406422429761</v>
+        <v>3.29872634597803</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.66666666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.61290322580645</v>
+        <v>2.38907849829352</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>3368</v>
+        <v>31571</v>
       </c>
       <c r="F25" t="n">
-        <v>3.28335510538322</v>
+        <v>4.94229733622212</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
-        <v>4.83870967741935</v>
+        <v>5.11945392491468</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>9636</v>
+        <v>36343</v>
       </c>
       <c r="F26" t="n">
-        <v>9.39382713642302</v>
+        <v>5.68933236483863</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J26" t="n">
-        <v>8.06451612903226</v>
+        <v>5.46075085324232</v>
       </c>
       <c r="K26" t="n">
         <v>9</v>
